--- a/data_sheets/TT25_plant_id_list_summary_colorcoded.xlsx
+++ b/data_sheets/TT25_plant_id_list_summary_colorcoded.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Documents\git\2025_TT_psf\data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B27D3EC-CC20-4B47-8BE3-B79648D6BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D18EFC5-D7E4-4A96-9CC4-4C7B20C306CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{005F6777-72E8-43B9-BE4E-57C4D8DC1068}"/>
+    <workbookView xWindow="1416" yWindow="1212" windowWidth="21624" windowHeight="12468" xr2:uid="{005F6777-72E8-43B9-BE4E-57C4D8DC1068}"/>
   </bookViews>
   <sheets>
     <sheet name="TT25_plant_id_list_print" sheetId="1" r:id="rId1"/>
-    <sheet name="count_FullExpTrt" sheetId="5" r:id="rId2"/>
-    <sheet name="count_ExpSoilSource" sheetId="10" r:id="rId3"/>
-    <sheet name="count_expFungSource" sheetId="11" r:id="rId4"/>
+    <sheet name="mai" sheetId="12" r:id="rId2"/>
+    <sheet name="count_FullExpTrt" sheetId="5" r:id="rId3"/>
+    <sheet name="count_ExpSoilSource" sheetId="10" r:id="rId4"/>
+    <sheet name="count_expFungSource" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TT25_plant_id_list_print!$A$1:$J$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mai!$A$1:$E$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TT25_plant_id_list_print!$A$1:$K$265</definedName>
     <definedName name="_xlcn.WorksheetConnection_TT25_plant_id_list_printA1J2651" hidden="1">TT25_plant_id_list_print!$A$1:$J$265</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="93">
   <si>
     <t>Plot</t>
   </si>
@@ -349,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,8 +500,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +838,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -1107,7 +1122,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1252,6 +1267,24 @@
     <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1297,7 +1330,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="139">
+  <dxfs count="146">
     <dxf>
       <fill>
         <patternFill>
@@ -1364,6 +1397,57 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -6607,7 +6691,7 @@
     <dataField name="Total individuals" fld="3" subtotal="count" baseField="9" baseItem="0"/>
   </dataFields>
   <formats count="105">
-    <format dxfId="138">
+    <format dxfId="145">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6616,7 +6700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="137">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6625,41 +6709,41 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="143">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="142">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="141">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="140">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="131">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="137">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="135">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="133">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6668,7 +6752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="125">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6677,7 +6761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="131">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6686,7 +6770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6695,7 +6779,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="129">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6704,7 +6788,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="128">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6713,7 +6797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6722,7 +6806,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="126">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6731,7 +6815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6740,7 +6824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="124">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6749,7 +6833,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6758,7 +6842,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="122">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6767,7 +6851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6776,7 +6860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="120">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6785,7 +6869,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="112">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6794,7 +6878,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="111">
+    <format dxfId="118">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6803,7 +6887,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6812,7 +6896,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="109">
+    <format dxfId="116">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6821,7 +6905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6830,7 +6914,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="107">
+    <format dxfId="114">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6839,7 +6923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="113">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6848,7 +6932,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6857,7 +6941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="111">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6866,7 +6950,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6875,7 +6959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="109">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6884,7 +6968,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6893,91 +6977,91 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="107">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="106">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="105">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="104">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="101">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="100">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="99">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="98">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="95">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="94">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="93">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="92">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="89">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="87">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="85">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="83">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -6986,7 +7070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="82">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -6998,7 +7082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="81">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7007,7 +7091,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="80">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7019,7 +7103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="79">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7028,7 +7112,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="78">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7040,7 +7124,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="77">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7049,7 +7133,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="76">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7061,7 +7145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="75">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7070,7 +7154,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="74">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7082,7 +7166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="73">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7091,7 +7175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="72">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7103,7 +7187,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="71">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7112,7 +7196,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7124,7 +7208,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="69">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7133,7 +7217,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7145,7 +7229,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="67">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7154,7 +7238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7166,7 +7250,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="65">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7175,7 +7259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7187,7 +7271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="63">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7196,7 +7280,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="3">
@@ -7210,7 +7294,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="61">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7219,7 +7303,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7231,7 +7315,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="59">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7240,7 +7324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="58">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7252,7 +7336,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="57">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7261,7 +7345,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="56">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7273,14 +7357,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7292,7 +7376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7304,7 +7388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7316,7 +7400,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7328,7 +7412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7340,7 +7424,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7352,7 +7436,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7364,7 +7448,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7376,7 +7460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7388,7 +7472,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7400,7 +7484,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="3">
@@ -7414,7 +7498,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7426,7 +7510,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7438,7 +7522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -7535,23 +7619,23 @@
     <dataField name="Count of Tag_number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="33">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="39">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="38">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7674,23 +7758,23 @@
     <dataField name="Count of Tag_number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="28">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="34">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="33">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7731,6 +7815,23 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43A5EF05-DEE1-4A4E-BAA0-C88A45DA91D6}" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="A1:E1048576" xr:uid="{43A5EF05-DEE1-4A4E-BAA0-C88A45DA91D6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1048576">
+    <sortCondition ref="B1:B1048576"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{014DAE36-7D6A-4C82-AC0C-9BF32614A4EC}" name="Species" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{2BB88389-AC07-41D6-9830-A9810D317126}" name="Tag_number" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{D91E06D3-827D-4F84-9F57-62E4DE6EF352}" name="FullExpTrt" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0DDF6FFB-942D-4657-94F6-6D8DD466C912}" name="color_original" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{FCB1E19E-4EA2-45F9-9155-6DD4D92E0EF0}" name="color_updated" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8050,11 +8151,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360DF132-8021-4C2F-BE5C-6BEFB7849D32}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8106,7 +8208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -8144,7 +8246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -8182,7 +8284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -8296,7 +8398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8334,7 +8436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8372,7 +8474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8382,7 +8484,7 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="68">
         <v>2074</v>
       </c>
       <c r="E9" s="61" t="s">
@@ -8448,7 +8550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -8600,7 +8702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -8676,7 +8778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -8750,7 +8852,7 @@
       </c>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -8786,7 +8888,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -8966,7 +9068,7 @@
       </c>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -9038,7 +9140,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -9074,7 +9176,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -9218,7 +9320,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -9254,7 +9356,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>5</v>
       </c>
@@ -9326,7 +9428,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -9362,7 +9464,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -9398,7 +9500,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -9434,7 +9536,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -9470,7 +9572,7 @@
       </c>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -9506,7 +9608,7 @@
       </c>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -9542,7 +9644,7 @@
       </c>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -9578,7 +9680,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -9614,7 +9716,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -9650,7 +9752,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>7</v>
       </c>
@@ -9686,7 +9788,7 @@
       </c>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>7</v>
       </c>
@@ -9722,7 +9824,7 @@
       </c>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -9758,7 +9860,7 @@
       </c>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -9794,7 +9896,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>5</v>
       </c>
@@ -9830,7 +9932,7 @@
       </c>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>6</v>
       </c>
@@ -9866,7 +9968,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -9902,7 +10004,7 @@
       </c>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>6</v>
       </c>
@@ -9938,7 +10040,7 @@
       </c>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>6</v>
       </c>
@@ -9974,7 +10076,7 @@
       </c>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -10010,7 +10112,7 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -10046,7 +10148,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>6</v>
       </c>
@@ -10082,7 +10184,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>6</v>
       </c>
@@ -10118,7 +10220,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -10154,7 +10256,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>5</v>
       </c>
@@ -10190,7 +10292,7 @@
       </c>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>7</v>
       </c>
@@ -10226,7 +10328,7 @@
       </c>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>7</v>
       </c>
@@ -10262,7 +10364,7 @@
       </c>
       <c r="Q60"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>5</v>
       </c>
@@ -10298,7 +10400,7 @@
       </c>
       <c r="Q61"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>6</v>
       </c>
@@ -10334,7 +10436,7 @@
       </c>
       <c r="Q62"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>7</v>
       </c>
@@ -10370,7 +10472,7 @@
       </c>
       <c r="Q63"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>7</v>
       </c>
@@ -10406,7 +10508,7 @@
       </c>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>5</v>
       </c>
@@ -10442,7 +10544,7 @@
       </c>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -10478,7 +10580,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -10514,7 +10616,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -10550,7 +10652,7 @@
       </c>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>7</v>
       </c>
@@ -10586,7 +10688,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>7</v>
       </c>
@@ -10622,7 +10724,7 @@
       </c>
       <c r="Q70"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -10658,7 +10760,7 @@
       </c>
       <c r="Q71"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -10694,7 +10796,7 @@
       </c>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>5</v>
       </c>
@@ -10730,7 +10832,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -10766,7 +10868,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>7</v>
       </c>
@@ -10802,7 +10904,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>7</v>
       </c>
@@ -10838,7 +10940,7 @@
       </c>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>7</v>
       </c>
@@ -10874,7 +10976,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -10910,7 +11012,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>6</v>
       </c>
@@ -10946,7 +11048,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -10982,7 +11084,7 @@
       </c>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>7</v>
       </c>
@@ -11018,7 +11120,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -11054,7 +11156,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>6</v>
       </c>
@@ -11090,7 +11192,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>5</v>
       </c>
@@ -11126,7 +11228,7 @@
       </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -11162,7 +11264,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>5</v>
       </c>
@@ -11198,7 +11300,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>3</v>
       </c>
@@ -11234,7 +11336,7 @@
       </c>
       <c r="Q87"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>6</v>
       </c>
@@ -11270,7 +11372,7 @@
       </c>
       <c r="Q88"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>6</v>
       </c>
@@ -11306,7 +11408,7 @@
       </c>
       <c r="Q89"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>5</v>
       </c>
@@ -11342,7 +11444,7 @@
       </c>
       <c r="Q90"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>7</v>
       </c>
@@ -11378,7 +11480,7 @@
       </c>
       <c r="Q91"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -11414,7 +11516,7 @@
       </c>
       <c r="Q92"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -11450,7 +11552,7 @@
       </c>
       <c r="Q93"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>6</v>
       </c>
@@ -11486,7 +11588,7 @@
       </c>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -11522,7 +11624,7 @@
       </c>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -11558,7 +11660,7 @@
       </c>
       <c r="Q96"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>6</v>
       </c>
@@ -11594,7 +11696,7 @@
       </c>
       <c r="Q97"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>6</v>
       </c>
@@ -11630,7 +11732,7 @@
       </c>
       <c r="Q98"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -11666,7 +11768,7 @@
       </c>
       <c r="Q99"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>5</v>
       </c>
@@ -11702,7 +11804,7 @@
       </c>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>7</v>
       </c>
@@ -11738,7 +11840,7 @@
       </c>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>6</v>
       </c>
@@ -11774,7 +11876,7 @@
       </c>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>5</v>
       </c>
@@ -11810,7 +11912,7 @@
       </c>
       <c r="Q103"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>3</v>
       </c>
@@ -11846,7 +11948,7 @@
       </c>
       <c r="Q104"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>7</v>
       </c>
@@ -11882,7 +11984,7 @@
       </c>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -11918,7 +12020,7 @@
       </c>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>7</v>
       </c>
@@ -11954,7 +12056,7 @@
       </c>
       <c r="Q107"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>6</v>
       </c>
@@ -11990,7 +12092,7 @@
       </c>
       <c r="Q108"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>6</v>
       </c>
@@ -12026,7 +12128,7 @@
       </c>
       <c r="Q109"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>7</v>
       </c>
@@ -12062,7 +12164,7 @@
       </c>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>3</v>
       </c>
@@ -12098,7 +12200,7 @@
       </c>
       <c r="Q111"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>5</v>
       </c>
@@ -12134,7 +12236,7 @@
       </c>
       <c r="Q112"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>5</v>
       </c>
@@ -12170,7 +12272,7 @@
       </c>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>5</v>
       </c>
@@ -12206,7 +12308,7 @@
       </c>
       <c r="Q114"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>7</v>
       </c>
@@ -12242,7 +12344,7 @@
       </c>
       <c r="Q115"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>7</v>
       </c>
@@ -12278,7 +12380,7 @@
       </c>
       <c r="Q116"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>7</v>
       </c>
@@ -12314,7 +12416,7 @@
       </c>
       <c r="Q117"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>3</v>
       </c>
@@ -12350,7 +12452,7 @@
       </c>
       <c r="Q118"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>5</v>
       </c>
@@ -12386,7 +12488,7 @@
       </c>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>6</v>
       </c>
@@ -12422,7 +12524,7 @@
       </c>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>6</v>
       </c>
@@ -12458,7 +12560,7 @@
       </c>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>6</v>
       </c>
@@ -12494,7 +12596,7 @@
       </c>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>6</v>
       </c>
@@ -12530,7 +12632,7 @@
       </c>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>3</v>
       </c>
@@ -12566,7 +12668,7 @@
       </c>
       <c r="Q124"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>3</v>
       </c>
@@ -12602,7 +12704,7 @@
       </c>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>6</v>
       </c>
@@ -12638,7 +12740,7 @@
       </c>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>6</v>
       </c>
@@ -12674,7 +12776,7 @@
       </c>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>3</v>
       </c>
@@ -12710,7 +12812,7 @@
       </c>
       <c r="Q128"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>6</v>
       </c>
@@ -12746,7 +12848,7 @@
       </c>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>6</v>
       </c>
@@ -12782,7 +12884,7 @@
       </c>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>6</v>
       </c>
@@ -12818,7 +12920,7 @@
       </c>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>5</v>
       </c>
@@ -12854,7 +12956,7 @@
       </c>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>6</v>
       </c>
@@ -12890,7 +12992,7 @@
       </c>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>3</v>
       </c>
@@ -12926,7 +13028,7 @@
       </c>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>4</v>
       </c>
@@ -12962,7 +13064,7 @@
       </c>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>7</v>
       </c>
@@ -12998,7 +13100,7 @@
       </c>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>7</v>
       </c>
@@ -13034,7 +13136,7 @@
       </c>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>6</v>
       </c>
@@ -13070,7 +13172,7 @@
       </c>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>7</v>
       </c>
@@ -13106,7 +13208,7 @@
       </c>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>7</v>
       </c>
@@ -13142,7 +13244,7 @@
       </c>
       <c r="Q140"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>5</v>
       </c>
@@ -13178,7 +13280,7 @@
       </c>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>7</v>
       </c>
@@ -13214,7 +13316,7 @@
       </c>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>4</v>
       </c>
@@ -13250,7 +13352,7 @@
       </c>
       <c r="Q143"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>5</v>
       </c>
@@ -13286,7 +13388,7 @@
       </c>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>5</v>
       </c>
@@ -13322,7 +13424,7 @@
       </c>
       <c r="Q145"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>3</v>
       </c>
@@ -13358,7 +13460,7 @@
       </c>
       <c r="Q146"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>5</v>
       </c>
@@ -13394,7 +13496,7 @@
       </c>
       <c r="Q147"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>3</v>
       </c>
@@ -13430,7 +13532,7 @@
       </c>
       <c r="Q148"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>6</v>
       </c>
@@ -13466,7 +13568,7 @@
       </c>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>7</v>
       </c>
@@ -13502,7 +13604,7 @@
       </c>
       <c r="Q150"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>6</v>
       </c>
@@ -13538,7 +13640,7 @@
       </c>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>6</v>
       </c>
@@ -13574,7 +13676,7 @@
       </c>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>6</v>
       </c>
@@ -13610,7 +13712,7 @@
       </c>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>6</v>
       </c>
@@ -13646,7 +13748,7 @@
       </c>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>7</v>
       </c>
@@ -13682,7 +13784,7 @@
       </c>
       <c r="Q155"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>5</v>
       </c>
@@ -13718,7 +13820,7 @@
       </c>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>7</v>
       </c>
@@ -13754,7 +13856,7 @@
       </c>
       <c r="Q157"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>4</v>
       </c>
@@ -13790,7 +13892,7 @@
       </c>
       <c r="Q158"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>6</v>
       </c>
@@ -13826,7 +13928,7 @@
       </c>
       <c r="Q159"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>6</v>
       </c>
@@ -13862,7 +13964,7 @@
       </c>
       <c r="Q160"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>3</v>
       </c>
@@ -13898,7 +14000,7 @@
       </c>
       <c r="Q161"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>6</v>
       </c>
@@ -13934,7 +14036,7 @@
       </c>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>7</v>
       </c>
@@ -13970,7 +14072,7 @@
       </c>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>3</v>
       </c>
@@ -14006,7 +14108,7 @@
       </c>
       <c r="Q164"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>7</v>
       </c>
@@ -14042,7 +14144,7 @@
       </c>
       <c r="Q165"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>5</v>
       </c>
@@ -14078,7 +14180,7 @@
       </c>
       <c r="Q166"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>3</v>
       </c>
@@ -14114,7 +14216,7 @@
       </c>
       <c r="Q167"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>3</v>
       </c>
@@ -14150,7 +14252,7 @@
       </c>
       <c r="Q168"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>5</v>
       </c>
@@ -14186,7 +14288,7 @@
       </c>
       <c r="Q169"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>5</v>
       </c>
@@ -14222,7 +14324,7 @@
       </c>
       <c r="Q170"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>6</v>
       </c>
@@ -14258,7 +14360,7 @@
       </c>
       <c r="Q171"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>7</v>
       </c>
@@ -14294,7 +14396,7 @@
       </c>
       <c r="Q172"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>4</v>
       </c>
@@ -14330,7 +14432,7 @@
       </c>
       <c r="Q173"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>5</v>
       </c>
@@ -14366,7 +14468,7 @@
       </c>
       <c r="Q174"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>7</v>
       </c>
@@ -14402,7 +14504,7 @@
       </c>
       <c r="Q175"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>4</v>
       </c>
@@ -14438,7 +14540,7 @@
       </c>
       <c r="Q176"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>6</v>
       </c>
@@ -14474,7 +14576,7 @@
       </c>
       <c r="Q177"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>6</v>
       </c>
@@ -14510,7 +14612,7 @@
       </c>
       <c r="Q178"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>4</v>
       </c>
@@ -14546,7 +14648,7 @@
       </c>
       <c r="Q179"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>3</v>
       </c>
@@ -14582,7 +14684,7 @@
       </c>
       <c r="Q180"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>6</v>
       </c>
@@ -14618,7 +14720,7 @@
       </c>
       <c r="Q181"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>5</v>
       </c>
@@ -14654,7 +14756,7 @@
       </c>
       <c r="Q182"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>6</v>
       </c>
@@ -14690,7 +14792,7 @@
       </c>
       <c r="Q183"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>7</v>
       </c>
@@ -14726,7 +14828,7 @@
       </c>
       <c r="Q184"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>5</v>
       </c>
@@ -14762,7 +14864,7 @@
       </c>
       <c r="Q185"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>3</v>
       </c>
@@ -14798,7 +14900,7 @@
       </c>
       <c r="Q186"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>6</v>
       </c>
@@ -14834,7 +14936,7 @@
       </c>
       <c r="Q187"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>5</v>
       </c>
@@ -14870,7 +14972,7 @@
       </c>
       <c r="Q188"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>5</v>
       </c>
@@ -14906,7 +15008,7 @@
       </c>
       <c r="Q189"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>3</v>
       </c>
@@ -14942,7 +15044,7 @@
       </c>
       <c r="Q190"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>6</v>
       </c>
@@ -14978,7 +15080,7 @@
       </c>
       <c r="Q191"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>3</v>
       </c>
@@ -15014,7 +15116,7 @@
       </c>
       <c r="Q192"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>6</v>
       </c>
@@ -15050,7 +15152,7 @@
       </c>
       <c r="Q193"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>6</v>
       </c>
@@ -15086,7 +15188,7 @@
       </c>
       <c r="Q194"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>5</v>
       </c>
@@ -15122,7 +15224,7 @@
       </c>
       <c r="Q195"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>6</v>
       </c>
@@ -15158,7 +15260,7 @@
       </c>
       <c r="Q196"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>6</v>
       </c>
@@ -15194,7 +15296,7 @@
       </c>
       <c r="Q197"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>7</v>
       </c>
@@ -15230,7 +15332,7 @@
       </c>
       <c r="Q198"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>3</v>
       </c>
@@ -15266,7 +15368,7 @@
       </c>
       <c r="Q199"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>3</v>
       </c>
@@ -15302,7 +15404,7 @@
       </c>
       <c r="Q200"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>4</v>
       </c>
@@ -15338,7 +15440,7 @@
       </c>
       <c r="Q201"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>7</v>
       </c>
@@ -15374,7 +15476,7 @@
       </c>
       <c r="Q202"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>7</v>
       </c>
@@ -15410,7 +15512,7 @@
       </c>
       <c r="Q203"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>7</v>
       </c>
@@ -15446,7 +15548,7 @@
       </c>
       <c r="Q204"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>6</v>
       </c>
@@ -15482,7 +15584,7 @@
       </c>
       <c r="Q205"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>7</v>
       </c>
@@ -15518,7 +15620,7 @@
       </c>
       <c r="Q206"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>6</v>
       </c>
@@ -15554,7 +15656,7 @@
       </c>
       <c r="Q207"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>7</v>
       </c>
@@ -15590,7 +15692,7 @@
       </c>
       <c r="Q208"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>5</v>
       </c>
@@ -15626,7 +15728,7 @@
       </c>
       <c r="Q209"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>6</v>
       </c>
@@ -15662,7 +15764,7 @@
       </c>
       <c r="Q210"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>5</v>
       </c>
@@ -15698,7 +15800,7 @@
       </c>
       <c r="Q211"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>5</v>
       </c>
@@ -15734,7 +15836,7 @@
       </c>
       <c r="Q212"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>7</v>
       </c>
@@ -15770,7 +15872,7 @@
       </c>
       <c r="Q213"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>7</v>
       </c>
@@ -15806,7 +15908,7 @@
       </c>
       <c r="Q214"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>4</v>
       </c>
@@ -15842,7 +15944,7 @@
       </c>
       <c r="Q215"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>3</v>
       </c>
@@ -15878,7 +15980,7 @@
       </c>
       <c r="Q216"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>3</v>
       </c>
@@ -15914,7 +16016,7 @@
       </c>
       <c r="Q217"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>6</v>
       </c>
@@ -15950,7 +16052,7 @@
       </c>
       <c r="Q218"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>6</v>
       </c>
@@ -15986,7 +16088,7 @@
       </c>
       <c r="Q219"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>6</v>
       </c>
@@ -16022,7 +16124,7 @@
       </c>
       <c r="Q220"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>5</v>
       </c>
@@ -16058,7 +16160,7 @@
       </c>
       <c r="Q221"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>5</v>
       </c>
@@ -16094,7 +16196,7 @@
       </c>
       <c r="Q222"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>6</v>
       </c>
@@ -16130,7 +16232,7 @@
       </c>
       <c r="Q223"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>4</v>
       </c>
@@ -16166,7 +16268,7 @@
       </c>
       <c r="Q224"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>5</v>
       </c>
@@ -16202,7 +16304,7 @@
       </c>
       <c r="Q225"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>3</v>
       </c>
@@ -16238,7 +16340,7 @@
       </c>
       <c r="Q226"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>6</v>
       </c>
@@ -16274,7 +16376,7 @@
       </c>
       <c r="Q227"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>7</v>
       </c>
@@ -16310,7 +16412,7 @@
       </c>
       <c r="Q228"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>6</v>
       </c>
@@ -16346,7 +16448,7 @@
       </c>
       <c r="Q229"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>6</v>
       </c>
@@ -16382,7 +16484,7 @@
       </c>
       <c r="Q230"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>6</v>
       </c>
@@ -16418,7 +16520,7 @@
       </c>
       <c r="Q231"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>7</v>
       </c>
@@ -16454,7 +16556,7 @@
       </c>
       <c r="Q232"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>7</v>
       </c>
@@ -16490,7 +16592,7 @@
       </c>
       <c r="Q233"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>7</v>
       </c>
@@ -16526,7 +16628,7 @@
       </c>
       <c r="Q234"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>5</v>
       </c>
@@ -16562,7 +16664,7 @@
       </c>
       <c r="Q235"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>3</v>
       </c>
@@ -16598,7 +16700,7 @@
       </c>
       <c r="Q236"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>6</v>
       </c>
@@ -16634,7 +16736,7 @@
       </c>
       <c r="Q237"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>4</v>
       </c>
@@ -16670,7 +16772,7 @@
       </c>
       <c r="Q238"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>5</v>
       </c>
@@ -16706,7 +16808,7 @@
       </c>
       <c r="Q239"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>5</v>
       </c>
@@ -16742,7 +16844,7 @@
       </c>
       <c r="Q240"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>5</v>
       </c>
@@ -16778,7 +16880,7 @@
       </c>
       <c r="Q241"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>5</v>
       </c>
@@ -16814,7 +16916,7 @@
       </c>
       <c r="Q242"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>6</v>
       </c>
@@ -16850,7 +16952,7 @@
       </c>
       <c r="Q243"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>4</v>
       </c>
@@ -16886,7 +16988,7 @@
       </c>
       <c r="Q244"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>7</v>
       </c>
@@ -16922,7 +17024,7 @@
       </c>
       <c r="Q245"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>4</v>
       </c>
@@ -16958,7 +17060,7 @@
       </c>
       <c r="Q246"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>6</v>
       </c>
@@ -16994,7 +17096,7 @@
       </c>
       <c r="Q247"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>6</v>
       </c>
@@ -17030,7 +17132,7 @@
       </c>
       <c r="Q248"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>3</v>
       </c>
@@ -17066,7 +17168,7 @@
       </c>
       <c r="Q249"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>5</v>
       </c>
@@ -17102,7 +17204,7 @@
       </c>
       <c r="Q250"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>6</v>
       </c>
@@ -17138,7 +17240,7 @@
       </c>
       <c r="Q251"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>6</v>
       </c>
@@ -17174,7 +17276,7 @@
       </c>
       <c r="Q252"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>6</v>
       </c>
@@ -17210,7 +17312,7 @@
       </c>
       <c r="Q253"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>3</v>
       </c>
@@ -17246,7 +17348,7 @@
       </c>
       <c r="Q254"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>7</v>
       </c>
@@ -17282,7 +17384,7 @@
       </c>
       <c r="Q255"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>7</v>
       </c>
@@ -17318,7 +17420,7 @@
       </c>
       <c r="Q256"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>7</v>
       </c>
@@ -17354,7 +17456,7 @@
       </c>
       <c r="Q257"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>5</v>
       </c>
@@ -17390,7 +17492,7 @@
       </c>
       <c r="Q258"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>6</v>
       </c>
@@ -17426,7 +17528,7 @@
       </c>
       <c r="Q259"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>3</v>
       </c>
@@ -17462,7 +17564,7 @@
       </c>
       <c r="Q260"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>6</v>
       </c>
@@ -17498,7 +17600,7 @@
       </c>
       <c r="Q261"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>6</v>
       </c>
@@ -17534,7 +17636,7 @@
       </c>
       <c r="Q262"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>6</v>
       </c>
@@ -17570,7 +17672,7 @@
       </c>
       <c r="Q263"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>7</v>
       </c>
@@ -17606,7 +17708,7 @@
       </c>
       <c r="Q264"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>5</v>
       </c>
@@ -17643,10 +17745,18 @@
       <c r="Q265"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J265" xr:uid="{360DF132-8021-4C2F-BE5C-6BEFB7849D32}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J265">
-      <sortCondition ref="E1:E265"/>
-    </sortState>
+  <autoFilter ref="A1:K265" xr:uid="{360DF132-8021-4C2F-BE5C-6BEFB7849D32}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Mai"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="bluue"/>
+        <filter val="bluue_blue"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="9">
@@ -17660,56 +17770,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="blue">
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="blue">
       <formula>NOT(ISERROR(SEARCH("blue",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="purple">
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="purple">
       <formula>NOT(ISERROR(SEARCH("purple",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="yellow">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="yellow">
       <formula>NOT(ISERROR(SEARCH("yellow",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="white">
+    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="white">
       <formula>NOT(ISERROR(SEARCH("white",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="red">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="red">
       <formula>NOT(ISERROR(SEARCH("red",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="pink">
+    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="pink">
       <formula>NOT(ISERROR(SEARCH("pink",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="orange">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="orange">
       <formula>NOT(ISERROR(SEARCH("orange",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="green">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",J1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="blue">
-      <formula>NOT(ISERROR(SEARCH("blue",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="purple">
-      <formula>NOT(ISERROR(SEARCH("purple",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="yellow">
-      <formula>NOT(ISERROR(SEARCH("yellow",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="white">
-      <formula>NOT(ISERROR(SEARCH("white",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="red">
-      <formula>NOT(ISERROR(SEARCH("red",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="pink">
-      <formula>NOT(ISERROR(SEARCH("pink",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="orange">
-      <formula>NOT(ISERROR(SEARCH("orange",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="green">
-      <formula>NOT(ISERROR(SEARCH("green",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17718,6 +17802,2461 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733B8D7E-4FA4-4590-AC94-883C4847AC00}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E133" sqref="A1:E133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="69" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="34.44140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="71">
+        <v>54</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="71">
+        <v>129</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="71">
+        <v>179</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="71">
+        <v>235</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="71">
+        <v>511</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="71">
+        <v>543</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="71">
+        <v>545</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="71">
+        <v>631</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="71">
+        <v>652</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="71">
+        <v>682</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="71">
+        <v>860</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="71">
+        <v>901</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="71">
+        <v>1021</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="71">
+        <v>1153</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="71">
+        <v>1157</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="71">
+        <v>1159</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="71">
+        <v>1264</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="71">
+        <v>1401</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="71">
+        <v>1467</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="71">
+        <v>1468</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="71">
+        <v>1476</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="71">
+        <v>1495</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="71">
+        <v>1499</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="71">
+        <v>1689</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="71">
+        <v>1700</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="71">
+        <v>1941</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="71">
+        <v>2131</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="71">
+        <v>2247</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="71">
+        <v>2265</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="71">
+        <v>2285</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="71">
+        <v>2310</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="71">
+        <v>2337</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="71">
+        <v>2546</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="71">
+        <v>2608</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="71">
+        <v>2616</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="71">
+        <v>2637</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="71">
+        <v>2639</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="71">
+        <v>2662</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="71">
+        <v>2666</v>
+      </c>
+      <c r="C40" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="71">
+        <v>2689</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="71">
+        <v>2692</v>
+      </c>
+      <c r="C42" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="71">
+        <v>2726</v>
+      </c>
+      <c r="C43" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="71">
+        <v>2743</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="71">
+        <v>2753</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="71">
+        <v>2776</v>
+      </c>
+      <c r="C46" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="71">
+        <v>2799</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="71">
+        <v>2803</v>
+      </c>
+      <c r="C48" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="71">
+        <v>3136</v>
+      </c>
+      <c r="C49" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="71">
+        <v>3438</v>
+      </c>
+      <c r="C50" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="71">
+        <v>3665</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="71">
+        <v>3960</v>
+      </c>
+      <c r="C52" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="71">
+        <v>3993</v>
+      </c>
+      <c r="C53" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="71">
+        <v>4061</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="71">
+        <v>4193</v>
+      </c>
+      <c r="C55" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="71">
+        <v>4216</v>
+      </c>
+      <c r="C56" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="71">
+        <v>4237</v>
+      </c>
+      <c r="C57" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="71">
+        <v>4250</v>
+      </c>
+      <c r="C58" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="71">
+        <v>4632</v>
+      </c>
+      <c r="C59" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="71">
+        <v>4676</v>
+      </c>
+      <c r="C60" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="71">
+        <v>4698</v>
+      </c>
+      <c r="C61" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="71">
+        <v>4722</v>
+      </c>
+      <c r="C62" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="71">
+        <v>4736</v>
+      </c>
+      <c r="C63" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="71">
+        <v>4740</v>
+      </c>
+      <c r="C64" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="71">
+        <v>4781</v>
+      </c>
+      <c r="C65" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="71">
+        <v>4802</v>
+      </c>
+      <c r="C66" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="71">
+        <v>4804</v>
+      </c>
+      <c r="C67" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="71">
+        <v>4834</v>
+      </c>
+      <c r="C68" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="71">
+        <v>4844</v>
+      </c>
+      <c r="C69" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="71">
+        <v>4859</v>
+      </c>
+      <c r="C70" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="71">
+        <v>4865</v>
+      </c>
+      <c r="C71" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="71">
+        <v>4871</v>
+      </c>
+      <c r="C72" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="71">
+        <v>4874</v>
+      </c>
+      <c r="C73" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="71">
+        <v>4883</v>
+      </c>
+      <c r="C74" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="71">
+        <v>5009</v>
+      </c>
+      <c r="C75" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="71">
+        <v>5015</v>
+      </c>
+      <c r="C76" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="71">
+        <v>5025</v>
+      </c>
+      <c r="C77" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="71">
+        <v>5030</v>
+      </c>
+      <c r="C78" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="71">
+        <v>5052</v>
+      </c>
+      <c r="C79" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="71">
+        <v>5069</v>
+      </c>
+      <c r="C80" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="71">
+        <v>5073</v>
+      </c>
+      <c r="C81" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="71">
+        <v>5074</v>
+      </c>
+      <c r="C82" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="71">
+        <v>5077</v>
+      </c>
+      <c r="C83" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="71">
+        <v>5105</v>
+      </c>
+      <c r="C84" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A85" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="71">
+        <v>5122</v>
+      </c>
+      <c r="C85" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85"/>
+    </row>
+    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="71">
+        <v>5178</v>
+      </c>
+      <c r="C86" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A87" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="71">
+        <v>5184</v>
+      </c>
+      <c r="C87" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="71">
+        <v>5504</v>
+      </c>
+      <c r="C88" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A89" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="71">
+        <v>5506</v>
+      </c>
+      <c r="C89" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="71">
+        <v>5567</v>
+      </c>
+      <c r="C90" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="71">
+        <v>5569</v>
+      </c>
+      <c r="C91" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A92" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="71">
+        <v>5579</v>
+      </c>
+      <c r="C92" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A93" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="71">
+        <v>5596</v>
+      </c>
+      <c r="C93" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A94" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="71">
+        <v>5600</v>
+      </c>
+      <c r="C94" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A95" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="71">
+        <v>5607</v>
+      </c>
+      <c r="C95" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A96" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="71">
+        <v>5657</v>
+      </c>
+      <c r="C96" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A97" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="71">
+        <v>5664</v>
+      </c>
+      <c r="C97" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="71">
+        <v>6000</v>
+      </c>
+      <c r="C98" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A99" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="71">
+        <v>6027</v>
+      </c>
+      <c r="C99" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A100" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="71">
+        <v>6100</v>
+      </c>
+      <c r="C100" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A101" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="71">
+        <v>6462</v>
+      </c>
+      <c r="C101" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="71">
+        <v>6463</v>
+      </c>
+      <c r="C102" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A103" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="71">
+        <v>6483</v>
+      </c>
+      <c r="C103" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103"/>
+    </row>
+    <row r="104" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A104" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="71">
+        <v>6495</v>
+      </c>
+      <c r="C104" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A105" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="71">
+        <v>6685</v>
+      </c>
+      <c r="C105" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A106" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="71">
+        <v>6808</v>
+      </c>
+      <c r="C106" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A107" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="71">
+        <v>6882</v>
+      </c>
+      <c r="C107" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K107"/>
+    </row>
+    <row r="108" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A108" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="71">
+        <v>6886</v>
+      </c>
+      <c r="C108" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="K108"/>
+    </row>
+    <row r="109" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A109" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="71">
+        <v>6899</v>
+      </c>
+      <c r="C109" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A110" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="71">
+        <v>9412</v>
+      </c>
+      <c r="C110" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110"/>
+    </row>
+    <row r="111" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A111" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111"/>
+    </row>
+    <row r="112" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A112" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112"/>
+    </row>
+    <row r="113" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A113" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113"/>
+    </row>
+    <row r="114" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A114" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114"/>
+    </row>
+    <row r="115" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A115" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115"/>
+    </row>
+    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A116" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116"/>
+    </row>
+    <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A117" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117"/>
+    </row>
+    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A118" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118"/>
+    </row>
+    <row r="119" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A119" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K119"/>
+    </row>
+    <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A120" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120"/>
+    </row>
+    <row r="121" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A121" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K121"/>
+    </row>
+    <row r="122" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A122" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122"/>
+    </row>
+    <row r="123" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A123" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123"/>
+    </row>
+    <row r="124" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A124" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124"/>
+    </row>
+    <row r="125" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A125" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K125"/>
+    </row>
+    <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A126" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C126" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="K126"/>
+    </row>
+    <row r="127" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A127" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K127"/>
+    </row>
+    <row r="128" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A128" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C128" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128"/>
+    </row>
+    <row r="129" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A129" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C129" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="K129"/>
+    </row>
+    <row r="130" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A130" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K130"/>
+    </row>
+    <row r="131" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A131" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A132" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K132"/>
+    </row>
+    <row r="133" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A133" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K133"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0191E1-8748-4EDF-A635-CD15ECFC5050}">
   <dimension ref="B3:E35"/>
   <sheetViews>
@@ -18208,7 +20747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B99B43-508C-4BEC-A0E2-F370C5D6088A}">
   <dimension ref="B2:E11"/>
   <sheetViews>
@@ -18362,7 +20901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0B075-B633-4167-8716-C751636B7E11}">
   <dimension ref="B2:G11"/>
   <sheetViews>
